--- a/public/data/question-240722.xlsx
+++ b/public/data/question-240722.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seantsang/Documents/working/slf2024-game/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACACD98E-2C19-F243-BF86-7A5344041900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8871E12-BA7B-AF45-ACEF-160E0F4B13BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34860" yWindow="-6440" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="384">
   <si>
     <t>藍屋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1450,6 +1450,9 @@
   </si>
   <si>
     <t>MoA_Outlook.jpg</t>
+  </si>
+  <si>
+    <t>library.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1905,7 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -2523,7 +2526,9 @@
       <c r="K16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
